--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.741769</v>
+        <v>13.26539866666667</v>
       </c>
       <c r="H2">
-        <v>56.225307</v>
+        <v>39.796196</v>
       </c>
       <c r="I2">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="J2">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.521994666666667</v>
+        <v>0.6340813333333334</v>
       </c>
       <c r="N2">
-        <v>7.565984</v>
+        <v>1.902244</v>
       </c>
       <c r="O2">
-        <v>0.01218715015226367</v>
+        <v>0.003487630722257058</v>
       </c>
       <c r="P2">
-        <v>0.01218715015226367</v>
+        <v>0.003487630722257058</v>
       </c>
       <c r="Q2">
-        <v>47.26664146189867</v>
+        <v>8.411341673758225</v>
       </c>
       <c r="R2">
-        <v>425.399773157088</v>
+        <v>75.70207506382401</v>
       </c>
       <c r="S2">
-        <v>0.002703758049152026</v>
+        <v>0.000574566976977273</v>
       </c>
       <c r="T2">
-        <v>0.002703758049152026</v>
+        <v>0.0005745669769772729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.741769</v>
+        <v>13.26539866666667</v>
       </c>
       <c r="H3">
-        <v>56.225307</v>
+        <v>39.796196</v>
       </c>
       <c r="I3">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="J3">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>471.493576</v>
       </c>
       <c r="O3">
-        <v>0.7594733225102963</v>
+        <v>0.8644503444376447</v>
       </c>
       <c r="P3">
-        <v>0.7594733225102963</v>
+        <v>0.8644503444376448</v>
       </c>
       <c r="Q3">
-        <v>2945.541228791982</v>
+        <v>2084.8500848041</v>
       </c>
       <c r="R3">
-        <v>26509.87105912783</v>
+        <v>18763.6507632369</v>
       </c>
       <c r="S3">
-        <v>0.1684915737640302</v>
+        <v>0.1424131912764735</v>
       </c>
       <c r="T3">
-        <v>0.1684915737640302</v>
+        <v>0.1424131912764735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.741769</v>
+        <v>13.26539866666667</v>
       </c>
       <c r="H4">
-        <v>56.225307</v>
+        <v>39.796196</v>
       </c>
       <c r="I4">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="J4">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.252316</v>
+        <v>24.01001466666667</v>
       </c>
       <c r="N4">
-        <v>141.756948</v>
+        <v>72.030044</v>
       </c>
       <c r="O4">
-        <v>0.2283395273374399</v>
+        <v>0.1320620248400982</v>
       </c>
       <c r="P4">
-        <v>0.2283395273374399</v>
+        <v>0.1320620248400982</v>
       </c>
       <c r="Q4">
-        <v>885.5919911870041</v>
+        <v>318.5024165458472</v>
       </c>
       <c r="R4">
-        <v>7970.327920683036</v>
+        <v>2866.521748912624</v>
       </c>
       <c r="S4">
-        <v>0.05065785087283097</v>
+        <v>0.02175645428905018</v>
       </c>
       <c r="T4">
-        <v>0.05065785087283097</v>
+        <v>0.02175645428905018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>161.316902</v>
       </c>
       <c r="I5">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="J5">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.521994666666667</v>
+        <v>0.6340813333333334</v>
       </c>
       <c r="N5">
-        <v>7.565984</v>
+        <v>1.902244</v>
       </c>
       <c r="O5">
-        <v>0.01218715015226367</v>
+        <v>0.003487630722257058</v>
       </c>
       <c r="P5">
-        <v>0.01218715015226367</v>
+        <v>0.003487630722257058</v>
       </c>
       <c r="Q5">
-        <v>135.6134554957298</v>
+        <v>34.09601210312089</v>
       </c>
       <c r="R5">
-        <v>1220.521099461568</v>
+        <v>306.864108928088</v>
       </c>
       <c r="S5">
-        <v>0.007757394232578731</v>
+        <v>0.002329050864999233</v>
       </c>
       <c r="T5">
-        <v>0.007757394232578731</v>
+        <v>0.002329050864999232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>161.316902</v>
       </c>
       <c r="I6">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="J6">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>471.493576</v>
       </c>
       <c r="O6">
-        <v>0.7594733225102963</v>
+        <v>0.8644503444376447</v>
       </c>
       <c r="P6">
-        <v>0.7594733225102963</v>
+        <v>0.8644503444376448</v>
       </c>
       <c r="Q6">
         <v>8451.098110357951</v>
       </c>
       <c r="R6">
-        <v>76059.88299322154</v>
+        <v>76059.88299322156</v>
       </c>
       <c r="S6">
-        <v>0.4834217924807033</v>
+        <v>0.5772826835171415</v>
       </c>
       <c r="T6">
-        <v>0.4834217924807033</v>
+        <v>0.5772826835171416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>161.316902</v>
       </c>
       <c r="I7">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="J7">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.252316</v>
+        <v>24.01001466666667</v>
       </c>
       <c r="N7">
-        <v>141.756948</v>
+        <v>72.030044</v>
       </c>
       <c r="O7">
-        <v>0.2283395273374399</v>
+        <v>0.1320620248400982</v>
       </c>
       <c r="P7">
-        <v>0.2283395273374399</v>
+        <v>0.1320620248400982</v>
       </c>
       <c r="Q7">
-        <v>2540.865743148344</v>
+        <v>1291.073727667076</v>
       </c>
       <c r="R7">
-        <v>22867.7916883351</v>
+        <v>11619.66354900369</v>
       </c>
       <c r="S7">
-        <v>0.1453432271127144</v>
+        <v>0.0881914393127973</v>
       </c>
       <c r="T7">
-        <v>0.1453432271127144</v>
+        <v>0.0881914393127973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.964182</v>
+        <v>13.48348233333333</v>
       </c>
       <c r="H8">
-        <v>35.892546</v>
+        <v>40.450447</v>
       </c>
       <c r="I8">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="J8">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.521994666666667</v>
+        <v>0.6340813333333334</v>
       </c>
       <c r="N8">
-        <v>7.565984</v>
+        <v>1.902244</v>
       </c>
       <c r="O8">
-        <v>0.01218715015226367</v>
+        <v>0.003487630722257058</v>
       </c>
       <c r="P8">
-        <v>0.01218715015226367</v>
+        <v>0.003487630722257058</v>
       </c>
       <c r="Q8">
-        <v>30.17360319502933</v>
+        <v>8.549624455896446</v>
       </c>
       <c r="R8">
-        <v>271.562428755264</v>
+        <v>76.946620103068</v>
       </c>
       <c r="S8">
-        <v>0.001725997870532914</v>
+        <v>0.0005840128802805525</v>
       </c>
       <c r="T8">
-        <v>0.001725997870532914</v>
+        <v>0.0005840128802805523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.964182</v>
+        <v>13.48348233333333</v>
       </c>
       <c r="H9">
-        <v>35.892546</v>
+        <v>40.450447</v>
       </c>
       <c r="I9">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="J9">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>471.493576</v>
       </c>
       <c r="O9">
-        <v>0.7594733225102963</v>
+        <v>0.8644503444376447</v>
       </c>
       <c r="P9">
-        <v>0.7594733225102963</v>
+        <v>0.8644503444376448</v>
       </c>
       <c r="Q9">
-        <v>1880.344985031611</v>
+        <v>2119.125100758719</v>
       </c>
       <c r="R9">
-        <v>16923.10486528449</v>
+        <v>19072.12590682847</v>
       </c>
       <c r="S9">
-        <v>0.1075599562655629</v>
+        <v>0.1447544696440297</v>
       </c>
       <c r="T9">
-        <v>0.1075599562655629</v>
+        <v>0.1447544696440297</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.964182</v>
+        <v>13.48348233333333</v>
       </c>
       <c r="H10">
-        <v>35.892546</v>
+        <v>40.450447</v>
       </c>
       <c r="I10">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="J10">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.252316</v>
+        <v>24.01001466666667</v>
       </c>
       <c r="N10">
-        <v>141.756948</v>
+        <v>72.030044</v>
       </c>
       <c r="O10">
-        <v>0.2283395273374399</v>
+        <v>0.1320620248400982</v>
       </c>
       <c r="P10">
-        <v>0.2283395273374399</v>
+        <v>0.1320620248400982</v>
       </c>
       <c r="Q10">
-        <v>565.335308545512</v>
+        <v>323.7386085810742</v>
       </c>
       <c r="R10">
-        <v>5088.017776909607</v>
+        <v>2913.647477229668</v>
       </c>
       <c r="S10">
-        <v>0.03233844935189462</v>
+        <v>0.02211413123825068</v>
       </c>
       <c r="T10">
-        <v>0.03233844935189461</v>
+        <v>0.02211413123825068</v>
       </c>
     </row>
   </sheetData>
